--- a/OutPut.xlsx
+++ b/OutPut.xlsx
@@ -503,16 +503,16 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-0.001476204199004445</v>
+        <v>-0.01406484571362333</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.001058235668810229</v>
+        <v>-0.001082944281545166</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.050051205123291</v>
+        <v>0.3643362589178141</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003103059183284905</v>
+        <v>0.02126729152411775</v>
       </c>
     </row>
     <row r="3">
@@ -593,16 +593,16 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-0.001715887463744812</v>
+        <v>-0.001642299785029948</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.001230139256235848</v>
+        <v>-0.00115651577099799</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.099208475940143</v>
+        <v>-0.5811097199099962</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007570237569125873</v>
+        <v>0.01094710725374387</v>
       </c>
     </row>
     <row r="6">
@@ -803,16 +803,16 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-0.01257021323790153</v>
+        <v>-0.01247803314291016</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.002955923364783542</v>
+        <v>-0.003372693745302393</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6488425841923888</v>
+        <v>-0.1737389265442064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01745752701483834</v>
+        <v>0.0198879406187076</v>
       </c>
     </row>
     <row r="13">
@@ -1013,16 +1013,16 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>-0.02859014415799688</v>
+        <v>-0.02822763825462793</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.003342792624625165</v>
+        <v>-0.002355938526347006</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2107170060382541</v>
+        <v>0.1896430816444268</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03369102492989983</v>
+        <v>0.03564285749859114</v>
       </c>
     </row>
     <row r="20">
@@ -1043,16 +1043,16 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>-0.002008272457177726</v>
+        <v>-0.001690460050710389</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.00143987277086923</v>
+        <v>-0.0011218793564164</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9057709667385585</v>
+        <v>0.4367048815283286</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0100236173527658</v>
+        <v>0.01700476697357017</v>
       </c>
     </row>
     <row r="21">
@@ -1283,16 +1283,16 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>-0.005926937481768678</v>
+        <v>-0.006200697104215644</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.00425416906550993</v>
+        <v>-0.004528389354750257</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9818050111227198</v>
+        <v>1.328348059194119</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02844827988708094</v>
+        <v>0.03822318456210722</v>
       </c>
     </row>
     <row r="29">
@@ -1343,16 +1343,16 @@
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>-0.002516945051909498</v>
+        <v>-0.002418214007238247</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0018048365471316</v>
+        <v>-0.001706035017837832</v>
       </c>
       <c r="I30" t="n">
-        <v>-3.441077638006749</v>
+        <v>-1.997944672736007</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005874551008531953</v>
+        <v>0.008072365244925946</v>
       </c>
     </row>
     <row r="31">
@@ -1463,16 +1463,16 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>-0.004686257379283241</v>
+        <v>-0.004587265344591822</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.003362463544243921</v>
+        <v>-0.003263339847505018</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.571828096133176</v>
+        <v>-0.7590063718756757</v>
       </c>
       <c r="J34" t="n">
-        <v>0.009744758580870445</v>
+        <v>0.01246949854207967</v>
       </c>
     </row>
     <row r="35">
@@ -1853,16 +1853,16 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>-0.002956176163391106</v>
+        <v>-0.002422393260742812</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.002120062002175683</v>
+        <v>-0.001585831472820068</v>
       </c>
       <c r="I47" t="n">
-        <v>-2.336106751035864</v>
+        <v>-1.185553156903957</v>
       </c>
       <c r="J47" t="n">
-        <v>0.007487761304734559</v>
+        <v>0.01008571378029218</v>
       </c>
     </row>
     <row r="48">
@@ -1973,16 +1973,16 @@
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>-0.003854019276137034</v>
+        <v>-0.003594264282523242</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.002764666568627141</v>
+        <v>-0.002504627515436683</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.9811189597916856</v>
+        <v>-0.2286442636639064</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01052333911456238</v>
+        <v>0.01344194435862003</v>
       </c>
     </row>
     <row r="52">
@@ -2183,16 +2183,16 @@
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>-0.009798989594013048</v>
+        <v>-0.01782800895510246</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.007041146676730939</v>
+        <v>-0.006136050912000655</v>
       </c>
       <c r="I58" t="n">
-        <v>1.190575138133718</v>
+        <v>1.205367512466508</v>
       </c>
       <c r="J58" t="n">
-        <v>0.04014779813729906</v>
+        <v>0.05762739376668132</v>
       </c>
     </row>
     <row r="59">
@@ -2243,16 +2243,16 @@
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>-0.003820342434709468</v>
+        <v>-0.003979621305058161</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.002740482422895332</v>
+        <v>-0.002899933951741425</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.499099158827718</v>
+        <v>-0.6113376597268234</v>
       </c>
       <c r="J60" t="n">
-        <v>0.009509280716616168</v>
+        <v>0.01256330023759996</v>
       </c>
     </row>
     <row r="61">
@@ -2303,16 +2303,16 @@
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>-0.001994258063413703</v>
+        <v>-0.001769532834768784</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.001429819176572706</v>
+        <v>-0.001204966850805425</v>
       </c>
       <c r="I62" t="n">
-        <v>-2.983046776320232</v>
+        <v>-0.9118580189416685</v>
       </c>
       <c r="J62" t="n">
-        <v>0.006048501212240575</v>
+        <v>0.009784519225248353</v>
       </c>
     </row>
     <row r="63">
@@ -2393,16 +2393,16 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>-0.006542371908377214</v>
+        <v>-0.004783231021024239</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.004696729177141547</v>
+        <v>-0.002934320162895028</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6235101718228314</v>
+        <v>1.361738487505064</v>
       </c>
       <c r="J65" t="n">
-        <v>0.02320491191101562</v>
+        <v>0.03705380467852302</v>
       </c>
     </row>
     <row r="66">
@@ -2453,16 +2453,16 @@
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
-        <v>-0.001816843125544551</v>
+        <v>-0.001328322590055142</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.001302552809610024</v>
+        <v>-0.0008137805754430663</v>
       </c>
       <c r="I67" t="n">
-        <v>-1.247762998376956</v>
+        <v>0.2368089570799692</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0089993598548625</v>
+        <v>0.01484079412495123</v>
       </c>
     </row>
     <row r="68">
@@ -2483,16 +2483,16 @@
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>-0.003514442579950994</v>
+        <v>-0.01646068721231686</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.002520829581284524</v>
+        <v>-0.002088334527839237</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.294761036359353</v>
+        <v>0.9533929696342103</v>
       </c>
       <c r="J68" t="n">
-        <v>0.009527384770749084</v>
+        <v>0.02790042413036055</v>
       </c>
     </row>
     <row r="69">
@@ -2633,16 +2633,16 @@
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>-0.004719016820779397</v>
+        <v>-0.003896657513679336</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.003386000441607004</v>
+        <v>-0.002562539718480257</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.913897721438532</v>
+        <v>-1.222625328107663</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0088248607755537</v>
+        <v>0.01059027318878184</v>
       </c>
     </row>
     <row r="74">
@@ -2663,16 +2663,16 @@
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>-0.02062938600648085</v>
+        <v>-0.02028046347335269</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.009196450412524586</v>
+        <v>-0.008046233955816769</v>
       </c>
       <c r="I74" t="n">
-        <v>1.048233862409371</v>
+        <v>1.258791190907852</v>
       </c>
       <c r="J74" t="n">
-        <v>0.05679620476695202</v>
+        <v>0.0620706935023773</v>
       </c>
     </row>
     <row r="75">
@@ -2813,16 +2813,16 @@
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>-0.01003118306561363</v>
+        <v>-0.00996335221945315</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.002315137010773001</v>
+        <v>-0.002472579134252714</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.7828274488551477</v>
+        <v>-0.2737527149554446</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01532734034184284</v>
+        <v>0.01741720544836497</v>
       </c>
     </row>
     <row r="80">
@@ -2873,16 +2873,16 @@
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>-0.005927953156935488</v>
+        <v>-0.00654006264219362</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.004254899312120191</v>
+        <v>-0.004868038996478087</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.5049500196539741</v>
+        <v>0.04182229853223243</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01406202403221525</v>
+        <v>0.01762121591721783</v>
       </c>
     </row>
     <row r="82">
@@ -3023,16 +3023,16 @@
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>-0.02166393848037998</v>
+        <v>-0.04462604876459749</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.002506278790623214</v>
+        <v>-0.002753590696542597</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.5000359488338607</v>
+        <v>1.088522354460326</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02545302175471533</v>
+        <v>0.07185964313376282</v>
       </c>
     </row>
     <row r="87">
@@ -3383,16 +3383,16 @@
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>-0.004134681679776644</v>
+        <v>-0.003574310595312979</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.002966234935358498</v>
+        <v>-0.002405206368645715</v>
       </c>
       <c r="I98" t="n">
-        <v>0.443157971973424</v>
+        <v>1.213758148539793</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01941773704047311</v>
+        <v>0.03040565682792342</v>
       </c>
     </row>
     <row r="99">

--- a/OutPut.xlsx
+++ b/OutPut.xlsx
@@ -501,7 +501,9 @@
       <c r="E2" t="n">
         <v>2299.054216539469</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.9049025670377997</v>
+      </c>
       <c r="G2" t="n">
         <v>-0.01406484571362333</v>
       </c>
@@ -531,12 +533,14 @@
       <c r="E3" t="n">
         <v>29703.0034823997</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>30.98545980334073</v>
+      </c>
       <c r="G3" t="n">
-        <v>-0.00412048289889248</v>
+        <v>-0.004120482898892481</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.001970049110615596</v>
+        <v>-0.001970049110615719</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3861505207213801</v>
@@ -561,7 +565,9 @@
       <c r="E4" t="n">
         <v>47071.28182982292</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>12.42686956366342</v>
+      </c>
       <c r="G4" t="n">
         <v>-0.001838347165605289</v>
       </c>
@@ -591,18 +597,20 @@
       <c r="E5" t="n">
         <v>29198.23471591807</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>140.2252815222723</v>
+      </c>
       <c r="G5" t="n">
-        <v>-0.001642299785029948</v>
+        <v>-0.001642299785030158</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.00115651577099799</v>
+        <v>-0.0011565157709982</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5811097199099962</v>
+        <v>-0.5811097199099933</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01094710725374387</v>
+        <v>0.01094710725374393</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +629,9 @@
       <c r="E6" t="n">
         <v>20020.32638411957</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>56.08673449151924</v>
+      </c>
       <c r="G6" t="n">
         <v>-0.009446208686672935</v>
       </c>
@@ -651,7 +661,9 @@
       <c r="E7" t="n">
         <v>32521.1227036753</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.7175131225709114</v>
+      </c>
       <c r="G7" t="n">
         <v>-0.02784523275835922</v>
       </c>
@@ -681,7 +693,9 @@
       <c r="E8" t="n">
         <v>23454.39163408431</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>20.09801576660729</v>
+      </c>
       <c r="G8" t="n">
         <v>-0.002764955322771145</v>
       </c>
@@ -711,9 +725,11 @@
       <c r="E9" t="n">
         <v>27735.22267648081</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>29.46897794077231</v>
+      </c>
       <c r="G9" t="n">
-        <v>-0.004027544260912357</v>
+        <v>-0.004027544260912356</v>
       </c>
       <c r="H9" t="n">
         <v>-0.002889286339422545</v>
@@ -741,18 +757,20 @@
       <c r="E10" t="n">
         <v>47131.77563004973</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.7182269516031651</v>
+      </c>
       <c r="G10" t="n">
         <v>-0.01879738758080653</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0004803913246390102</v>
+        <v>-0.0004803913246390103</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4485010544418783</v>
+        <v>0.4485010544418698</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02759736958256494</v>
+        <v>0.02759736958256495</v>
       </c>
     </row>
     <row r="11">
@@ -771,12 +789,14 @@
       <c r="E11" t="n">
         <v>19919.02925223794</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>4.099712118748299</v>
+      </c>
       <c r="G11" t="n">
-        <v>-0.005304181675504718</v>
+        <v>-0.005304181675504716</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.00374276314410097</v>
+        <v>-0.003742763144100847</v>
       </c>
       <c r="I11" t="n">
         <v>-1.951498261924719</v>
@@ -801,12 +821,14 @@
       <c r="E12" t="n">
         <v>48098.33762737179</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>11.45584537581994</v>
+      </c>
       <c r="G12" t="n">
-        <v>-0.01247803314291016</v>
+        <v>-0.01247803314291015</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.003372693745302393</v>
+        <v>-0.003372693745302391</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1737389265442064</v>
@@ -831,18 +853,20 @@
       <c r="E13" t="n">
         <v>45362.18145584712</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>17.94636771976296</v>
+      </c>
       <c r="G13" t="n">
         <v>-0.002361494384303994</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.001693292211843721</v>
+        <v>-0.00169329221184372</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.039658310635817</v>
+        <v>-3.039658310635836</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006354072190859848</v>
+        <v>0.006354072190859809</v>
       </c>
     </row>
     <row r="14">
@@ -861,18 +885,20 @@
       <c r="E14" t="n">
         <v>10593.76560467553</v>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>46.1260209845063</v>
+      </c>
       <c r="G14" t="n">
         <v>-0.00181522809487458</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.001301394346556258</v>
+        <v>-0.001301394346556257</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.126731769848005</v>
+        <v>-1.126731769847973</v>
       </c>
       <c r="J14" t="n">
-        <v>0.009289871293772954</v>
+        <v>0.009289871293773009</v>
       </c>
     </row>
     <row r="15">
@@ -891,18 +917,20 @@
       <c r="E15" t="n">
         <v>4398.703742883107</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>66.24378720489118</v>
+      </c>
       <c r="G15" t="n">
-        <v>-0.004680228769554763</v>
+        <v>-0.004680228769554527</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.003358132175945754</v>
+        <v>-0.003358132175945635</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3493611663640401</v>
+        <v>0.3493611663640481</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02015966577611139</v>
+        <v>0.02015966577611126</v>
       </c>
     </row>
     <row r="16">
@@ -921,7 +949,9 @@
       <c r="E16" t="n">
         <v>5938.122067493906</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>53.08461710693756</v>
+      </c>
       <c r="G16" t="n">
         <v>-0.01162585753210445</v>
       </c>
@@ -951,15 +981,17 @@
       <c r="E17" t="n">
         <v>1892.869456925937</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>85.56088447966741</v>
+      </c>
       <c r="G17" t="n">
-        <v>-0.00253928663083788</v>
+        <v>-0.002539286630837879</v>
       </c>
       <c r="H17" t="n">
         <v>-0.001820868657400274</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6776687817123256</v>
+        <v>-0.6776687817123251</v>
       </c>
       <c r="J17" t="n">
         <v>0.01209777243582338</v>
@@ -981,18 +1013,20 @@
       <c r="E18" t="n">
         <v>5627.705077040491</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>78.18098102030537</v>
+      </c>
       <c r="G18" t="n">
-        <v>-0.00161868874740324</v>
+        <v>-0.001618688747403239</v>
       </c>
       <c r="H18" t="n">
         <v>-0.001160424405044312</v>
       </c>
       <c r="I18" t="n">
-        <v>-2.168507496798353</v>
+        <v>-2.168507496798361</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007482824087831507</v>
+        <v>0.007482824087831482</v>
       </c>
     </row>
     <row r="19">
@@ -1011,7 +1045,9 @@
       <c r="E19" t="n">
         <v>34467.33189740148</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>9.002671090747254</v>
+      </c>
       <c r="G19" t="n">
         <v>-0.02822763825462793</v>
       </c>
@@ -1041,7 +1077,9 @@
       <c r="E20" t="n">
         <v>4488.24377455122</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>119.6541712585021</v>
+      </c>
       <c r="G20" t="n">
         <v>-0.001690460050710389</v>
       </c>
@@ -1071,18 +1109,20 @@
       <c r="E21" t="n">
         <v>16629.8058843943</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>41.46565339240377</v>
+      </c>
       <c r="G21" t="n">
-        <v>-0.004704194366586318</v>
+        <v>-0.004704194366586317</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.003375350798538366</v>
+        <v>-0.003375350798538365</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1558050881164041</v>
+        <v>0.1558050881163791</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01703041446687079</v>
+        <v>0.01703041446687053</v>
       </c>
     </row>
     <row r="22">
@@ -1101,7 +1141,9 @@
       <c r="E22" t="n">
         <v>42398.89023750327</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>33.64986839649235</v>
+      </c>
       <c r="G22" t="n">
         <v>-0.002967733656371834</v>
       </c>
@@ -1131,9 +1173,11 @@
       <c r="E23" t="n">
         <v>2140.324851055468</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>52.68229002131252</v>
+      </c>
       <c r="G23" t="n">
-        <v>-0.003847762145772112</v>
+        <v>-0.003847762145772113</v>
       </c>
       <c r="H23" t="n">
         <v>-0.002607528986896479</v>
@@ -1161,7 +1205,9 @@
       <c r="E24" t="n">
         <v>40908.95564685785</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>12.66173171026688</v>
+      </c>
       <c r="G24" t="n">
         <v>-0.003677414576992945</v>
       </c>
@@ -1191,12 +1237,14 @@
       <c r="E25" t="n">
         <v>14810.8839638966</v>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.691066152568781</v>
+      </c>
       <c r="G25" t="n">
-        <v>-0.02232800343637816</v>
+        <v>-0.02232800343637817</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.001695471292101179</v>
+        <v>-0.00169547129210118</v>
       </c>
       <c r="I25" t="n">
         <v>0.6229551706582978</v>
@@ -1221,7 +1269,9 @@
       <c r="E26" t="n">
         <v>6790.076553461156</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>9.9478316251409</v>
+      </c>
       <c r="G26" t="n">
         <v>-0.003302710052649612</v>
       </c>
@@ -1251,7 +1301,9 @@
       <c r="E27" t="n">
         <v>35140.12110284338</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>5.086419462764883</v>
+      </c>
       <c r="G27" t="n">
         <v>-0.0111909642711516</v>
       </c>
@@ -1281,18 +1333,20 @@
       <c r="E28" t="n">
         <v>31818.19949221432</v>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>66.00399301566016</v>
+      </c>
       <c r="G28" t="n">
-        <v>-0.006200697104215644</v>
+        <v>-0.006200697104215477</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.004528389354750257</v>
+        <v>-0.004528389354750089</v>
       </c>
       <c r="I28" t="n">
-        <v>1.328348059194119</v>
+        <v>1.328348059194118</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03822318456210722</v>
+        <v>0.03822318456210699</v>
       </c>
     </row>
     <row r="29">
@@ -1311,9 +1365,11 @@
       <c r="E29" t="n">
         <v>43996.12866282559</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>27.6647345021681</v>
+      </c>
       <c r="G29" t="n">
-        <v>-0.001725384245434017</v>
+        <v>-0.001725384245434016</v>
       </c>
       <c r="H29" t="n">
         <v>-0.001236950938312031</v>
@@ -1341,9 +1397,11 @@
       <c r="E30" t="n">
         <v>37018.4811463904</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>13.76610633901177</v>
+      </c>
       <c r="G30" t="n">
-        <v>-0.002418214007238247</v>
+        <v>-0.002418214007238248</v>
       </c>
       <c r="H30" t="n">
         <v>-0.001706035017837832</v>
@@ -1371,18 +1429,20 @@
       <c r="E31" t="n">
         <v>40370.56558885758</v>
       </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>16.272933422034</v>
+      </c>
       <c r="G31" t="n">
-        <v>-0.01289970352779969</v>
+        <v>-0.0128997035277997</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.003455530713053905</v>
+        <v>-0.003455530713053906</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2541272767836539</v>
+        <v>0.2541272767836465</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02577818342620228</v>
+        <v>0.02577818342620211</v>
       </c>
     </row>
     <row r="32">
@@ -1401,18 +1461,20 @@
       <c r="E32" t="n">
         <v>14819.69405599402</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>40.13855898129962</v>
+      </c>
       <c r="G32" t="n">
-        <v>-0.003674607340830649</v>
+        <v>-0.003674607340830648</v>
       </c>
       <c r="H32" t="n">
         <v>-0.002635831891983137</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3477071516079415</v>
+        <v>-0.3477071516079407</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01318001379462036</v>
+        <v>0.01318001379462039</v>
       </c>
     </row>
     <row r="33">
@@ -1431,7 +1493,9 @@
       <c r="E33" t="n">
         <v>9694.537645206417</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.9240711080163393</v>
+      </c>
       <c r="G33" t="n">
         <v>-0.05624913205660032</v>
       </c>
@@ -1461,7 +1525,9 @@
       <c r="E34" t="n">
         <v>37780.12283040206</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>11.5014106821196</v>
+      </c>
       <c r="G34" t="n">
         <v>-0.004587265344591822</v>
       </c>
@@ -1491,7 +1557,9 @@
       <c r="E35" t="n">
         <v>40534.90222409594</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>5.413137700720354</v>
+      </c>
       <c r="G35" t="n">
         <v>-0.0139069122717422</v>
       </c>
@@ -1521,7 +1589,9 @@
       <c r="E36" t="n">
         <v>49534.75195803299</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>26.52493510967155</v>
+      </c>
       <c r="G36" t="n">
         <v>-0.006513311638549473</v>
       </c>
@@ -1551,7 +1621,9 @@
       <c r="E37" t="n">
         <v>21218.2661686599</v>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>23.97808994608514</v>
+      </c>
       <c r="G37" t="n">
         <v>-0.001717246493051432</v>
       </c>
@@ -1581,18 +1653,20 @@
       <c r="E38" t="n">
         <v>19228.88620384637</v>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>24.10031449746344</v>
+      </c>
       <c r="G38" t="n">
-        <v>-0.005494608333559292</v>
+        <v>-0.00549460833355904</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.00394337279147765</v>
+        <v>-0.003943372791477523</v>
       </c>
       <c r="I38" t="n">
-        <v>0.124509479656939</v>
+        <v>0.1245094796569332</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0166096033768849</v>
+        <v>0.01660960337688474</v>
       </c>
     </row>
     <row r="39">
@@ -1611,7 +1685,9 @@
       <c r="E39" t="n">
         <v>39044.23507635784</v>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>40.05493394181627</v>
+      </c>
       <c r="G39" t="n">
         <v>-0.001845515486875147</v>
       </c>
@@ -1641,9 +1717,11 @@
       <c r="E40" t="n">
         <v>17699.37347239787</v>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>24.76173557583954</v>
+      </c>
       <c r="G40" t="n">
-        <v>-0.00325812081616221</v>
+        <v>-0.003258120816162211</v>
       </c>
       <c r="H40" t="n">
         <v>-0.002336805879852267</v>
@@ -1671,7 +1749,9 @@
       <c r="E41" t="n">
         <v>46607.10895457467</v>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>27.92960596684588</v>
+      </c>
       <c r="G41" t="n">
         <v>-0.002522702490023537</v>
       </c>
@@ -1701,12 +1781,14 @@
       <c r="E42" t="n">
         <v>43062.22484030758</v>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>43.69569071284992</v>
+      </c>
       <c r="G42" t="n">
-        <v>-0.008187173180173993</v>
+        <v>-0.008187173180173994</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.005438382187354275</v>
+        <v>-0.005438382187354276</v>
       </c>
       <c r="I42" t="n">
         <v>1.312569678699651</v>
@@ -1731,7 +1813,9 @@
       <c r="E43" t="n">
         <v>22020.7073413759</v>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>16.41687314582387</v>
+      </c>
       <c r="G43" t="n">
         <v>-0.003848548042512669</v>
       </c>
@@ -1739,10 +1823,10 @@
         <v>-0.002266384714324625</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.316803958440829</v>
+        <v>-1.316803958440871</v>
       </c>
       <c r="J43" t="n">
-        <v>0.009382284012617443</v>
+        <v>0.009382284012617323</v>
       </c>
     </row>
     <row r="44">
@@ -1761,18 +1845,20 @@
       <c r="E44" t="n">
         <v>37792.68232178337</v>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>37.56313383216887</v>
+      </c>
       <c r="G44" t="n">
-        <v>-0.01459296336303698</v>
+        <v>-0.01459296336303681</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.008792976768913151</v>
+        <v>-0.008792976768912981</v>
       </c>
       <c r="I44" t="n">
-        <v>1.277636792401216</v>
+        <v>1.277636792401217</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04650562858861445</v>
+        <v>0.04650562858861433</v>
       </c>
     </row>
     <row r="45">
@@ -1791,7 +1877,9 @@
       <c r="E45" t="n">
         <v>37972.60083014944</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>18.34367413461632</v>
+      </c>
       <c r="G45" t="n">
         <v>-0.006524099935263124</v>
       </c>
@@ -1821,7 +1909,9 @@
       <c r="E46" t="n">
         <v>6053.069572960698</v>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>10.662974912696</v>
+      </c>
       <c r="G46" t="n">
         <v>-0.001960426885748278</v>
       </c>
@@ -1829,10 +1919,10 @@
         <v>-0.0005366078532255417</v>
       </c>
       <c r="I46" t="n">
-        <v>-5.799467229399691</v>
+        <v>-5.799467229399694</v>
       </c>
       <c r="J46" t="n">
-        <v>0.004078235477047198</v>
+        <v>0.004078235477047196</v>
       </c>
     </row>
     <row r="47">
@@ -1851,7 +1941,9 @@
       <c r="E47" t="n">
         <v>45225.09242729877</v>
       </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>18.46996386911364</v>
+      </c>
       <c r="G47" t="n">
         <v>-0.002422393260742812</v>
       </c>
@@ -1881,18 +1973,20 @@
       <c r="E48" t="n">
         <v>25757.366249945</v>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>45.08270053805798</v>
+      </c>
       <c r="G48" t="n">
-        <v>-0.001709341385293208</v>
+        <v>-0.001709341385293209</v>
       </c>
       <c r="H48" t="n">
         <v>-0.001225444023275544</v>
       </c>
       <c r="I48" t="n">
-        <v>-2.718186688989685</v>
+        <v>-2.718186688989582</v>
       </c>
       <c r="J48" t="n">
-        <v>0.006430246906603444</v>
+        <v>0.006430246906603601</v>
       </c>
     </row>
     <row r="49">
@@ -1911,7 +2005,9 @@
       <c r="E49" t="n">
         <v>41496.41583927934</v>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>17.19721783837222</v>
+      </c>
       <c r="G49" t="n">
         <v>-0.02186740169222664</v>
       </c>
@@ -1941,12 +2037,14 @@
       <c r="E50" t="n">
         <v>16682.43045049997</v>
       </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>8.679923232360608</v>
+      </c>
       <c r="G50" t="n">
-        <v>-0.006552884863080507</v>
+        <v>-0.006552884863080508</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.00337261567694165</v>
+        <v>-0.003372615676941651</v>
       </c>
       <c r="I50" t="n">
         <v>-0.9119339452438541</v>
@@ -1971,18 +2069,20 @@
       <c r="E51" t="n">
         <v>44880.63819631383</v>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>29.61326748149374</v>
+      </c>
       <c r="G51" t="n">
         <v>-0.003594264282523242</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.002504627515436683</v>
+        <v>-0.002504627515436684</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.2286442636639064</v>
+        <v>-0.2286442636638674</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01344194435862003</v>
+        <v>0.01344194435862028</v>
       </c>
     </row>
     <row r="52">
@@ -2001,12 +2101,14 @@
       <c r="E52" t="n">
         <v>20070.88225797399</v>
       </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>27.59456429665013</v>
+      </c>
       <c r="G52" t="n">
-        <v>-0.003003966484297884</v>
+        <v>-0.003003966484297885</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.002154364688319686</v>
+        <v>-0.002154364688319687</v>
       </c>
       <c r="I52" t="n">
         <v>-0.2000964861634794</v>
@@ -2031,18 +2133,20 @@
       <c r="E53" t="n">
         <v>1531.04492253462</v>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>13.86135759355233</v>
+      </c>
       <c r="G53" t="n">
-        <v>-0.002690785036877028</v>
+        <v>-0.002690785036877029</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.001929587872180121</v>
+        <v>-0.001929587872180122</v>
       </c>
       <c r="I53" t="n">
-        <v>-2.882789350759137</v>
+        <v>-2.88278935075916</v>
       </c>
       <c r="J53" t="n">
-        <v>0.006584589379543547</v>
+        <v>0.006584589379543535</v>
       </c>
     </row>
     <row r="54">
@@ -2061,7 +2165,9 @@
       <c r="E54" t="n">
         <v>45363.71684454392</v>
       </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>4.714752794219569</v>
+      </c>
       <c r="G54" t="n">
         <v>-0.01302348327639997</v>
       </c>
@@ -2069,10 +2175,10 @@
         <v>-0.0014815805378188</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.293542304259425</v>
+        <v>-1.29354230425945</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01520361560622607</v>
+        <v>0.01520361560622596</v>
       </c>
     </row>
     <row r="55">
@@ -2091,7 +2197,9 @@
       <c r="E55" t="n">
         <v>5473.047162520545</v>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>22.88189591852525</v>
+      </c>
       <c r="G55" t="n">
         <v>-0.002258459236457626</v>
       </c>
@@ -2121,12 +2229,14 @@
       <c r="E56" t="n">
         <v>16646.36824193033</v>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>28.66634301738289</v>
+      </c>
       <c r="G56" t="n">
-        <v>-0.004699520147749246</v>
+        <v>-0.004699520147749245</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.003371992482422657</v>
+        <v>-0.003371992482422656</v>
       </c>
       <c r="I56" t="n">
         <v>0.5782969083934408</v>
@@ -2151,12 +2261,14 @@
       <c r="E57" t="n">
         <v>47553.03638548944</v>
       </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>20.38962302166215</v>
+      </c>
       <c r="G57" t="n">
         <v>-0.00363765338914171</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.002609297101327881</v>
+        <v>-0.002609297101327882</v>
       </c>
       <c r="I57" t="n">
         <v>-1.27234404196472</v>
@@ -2181,18 +2293,20 @@
       <c r="E58" t="n">
         <v>47579.75019994025</v>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>36.79495358176239</v>
+      </c>
       <c r="G58" t="n">
         <v>-0.01782800895510246</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.006136050912000655</v>
+        <v>-0.006136050912000654</v>
       </c>
       <c r="I58" t="n">
-        <v>1.205367512466508</v>
+        <v>1.20536751246651</v>
       </c>
       <c r="J58" t="n">
-        <v>0.05762739376668132</v>
+        <v>0.05762739376668131</v>
       </c>
     </row>
     <row r="59">
@@ -2211,18 +2325,20 @@
       <c r="E59" t="n">
         <v>29098.45651804102</v>
       </c>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>38.87403591334677</v>
+      </c>
       <c r="G59" t="n">
-        <v>-0.005028142472786999</v>
+        <v>-0.005028142472787</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.003608121591111727</v>
+        <v>-0.003608121591111728</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5592774145350257</v>
+        <v>0.5592774145350193</v>
       </c>
       <c r="J59" t="n">
-        <v>0.02152966508611472</v>
+        <v>0.02152966508611455</v>
       </c>
     </row>
     <row r="60">
@@ -2241,12 +2357,14 @@
       <c r="E60" t="n">
         <v>31960.02339632016</v>
       </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>21.53476721233134</v>
+      </c>
       <c r="G60" t="n">
         <v>-0.003979621305058161</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.002899933951741425</v>
+        <v>-0.002899933951741426</v>
       </c>
       <c r="I60" t="n">
         <v>-0.6113376597268234</v>
@@ -2271,12 +2389,14 @@
       <c r="E61" t="n">
         <v>22973.83057693767</v>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>44.08098236604889</v>
+      </c>
       <c r="G61" t="n">
         <v>-0.00181293535460526</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.0009358507461684033</v>
+        <v>-0.000935850746168403</v>
       </c>
       <c r="I61" t="n">
         <v>-2.678810135902398</v>
@@ -2301,7 +2421,9 @@
       <c r="E62" t="n">
         <v>15367.32781320516</v>
       </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>47.32429886532135</v>
+      </c>
       <c r="G62" t="n">
         <v>-0.001769532834768784</v>
       </c>
@@ -2331,7 +2453,9 @@
       <c r="E63" t="n">
         <v>17104.56272312588</v>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>36.61873788053894</v>
+      </c>
       <c r="G63" t="n">
         <v>-0.007109669105849973</v>
       </c>
@@ -2361,7 +2485,9 @@
       <c r="E64" t="n">
         <v>33953.40434777489</v>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>30.63955164921</v>
+      </c>
       <c r="G64" t="n">
         <v>-0.001743627125072054</v>
       </c>
@@ -2391,7 +2517,9 @@
       <c r="E65" t="n">
         <v>37866.35194244632</v>
       </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>102.6887348461175</v>
+      </c>
       <c r="G65" t="n">
         <v>-0.004783231021024239</v>
       </c>
@@ -2421,9 +2549,11 @@
       <c r="E66" t="n">
         <v>39787.37314256658</v>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>10.13586962050043</v>
+      </c>
       <c r="G66" t="n">
-        <v>-0.003623054393633096</v>
+        <v>-0.003623054393633095</v>
       </c>
       <c r="H66" t="n">
         <v>-0.002598814443705377</v>
@@ -2451,7 +2581,9 @@
       <c r="E67" t="n">
         <v>39691.28899693314</v>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>108.013119827437</v>
+      </c>
       <c r="G67" t="n">
         <v>-0.001328322590055142</v>
       </c>
@@ -2481,18 +2613,20 @@
       <c r="E68" t="n">
         <v>5469.099049385828</v>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>1.355783734188229</v>
+      </c>
       <c r="G68" t="n">
-        <v>-0.01646068721231686</v>
+        <v>-0.01646068721231685</v>
       </c>
       <c r="H68" t="n">
         <v>-0.002088334527839237</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9533929696342103</v>
+        <v>0.953392969634199</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02790042413036055</v>
+        <v>0.02790042413036052</v>
       </c>
     </row>
     <row r="69">
@@ -2511,7 +2645,9 @@
       <c r="E69" t="n">
         <v>25226.59493042649</v>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>20.91224698755275</v>
+      </c>
       <c r="G69" t="n">
         <v>-0.003999568417159857</v>
       </c>
@@ -2519,10 +2655,10 @@
         <v>-0.002869194205544622</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.9887638834509517</v>
+        <v>-0.9887638834509321</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01139158044011746</v>
+        <v>0.01139158044011757</v>
       </c>
     </row>
     <row r="70">
@@ -2541,12 +2677,14 @@
       <c r="E70" t="n">
         <v>3820.37924081557</v>
       </c>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>3.961180994167473</v>
+      </c>
       <c r="G70" t="n">
-        <v>-0.006692190322565407</v>
+        <v>-0.006692190322565409</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.003326538938446507</v>
+        <v>-0.003326538938446508</v>
       </c>
       <c r="I70" t="n">
         <v>-1.678588040977897</v>
@@ -2571,7 +2709,9 @@
       <c r="E71" t="n">
         <v>27926.91523386304</v>
       </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>32.86462171222271</v>
+      </c>
       <c r="G71" t="n">
         <v>-0.002065613265335955</v>
       </c>
@@ -2601,7 +2741,9 @@
       <c r="E72" t="n">
         <v>22634.99456729547</v>
       </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>28.57801096573919</v>
+      </c>
       <c r="G72" t="n">
         <v>-0.002366300341503686</v>
       </c>
@@ -2631,7 +2773,9 @@
       <c r="E73" t="n">
         <v>44497.50495515669</v>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>8.298115142850914</v>
+      </c>
       <c r="G73" t="n">
         <v>-0.003896657513679336</v>
       </c>
@@ -2661,7 +2805,9 @@
       <c r="E74" t="n">
         <v>18194.83561505186</v>
       </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>30.58746710835065</v>
+      </c>
       <c r="G74" t="n">
         <v>-0.02028046347335269</v>
       </c>
@@ -2691,9 +2837,11 @@
       <c r="E75" t="n">
         <v>6736.283804952687</v>
       </c>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>22.23020660085714</v>
+      </c>
       <c r="G75" t="n">
-        <v>-0.002724242943735072</v>
+        <v>-0.002724242943735073</v>
       </c>
       <c r="H75" t="n">
         <v>-0.001953599400061493</v>
@@ -2721,12 +2869,14 @@
       <c r="E76" t="n">
         <v>8006.592420588957</v>
       </c>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>59.94750595451939</v>
+      </c>
       <c r="G76" t="n">
-        <v>-0.004050440451839193</v>
+        <v>-0.004050440451839194</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.002905730525282436</v>
+        <v>-0.002905730525282437</v>
       </c>
       <c r="I76" t="n">
         <v>0.07803689327803234</v>
@@ -2751,7 +2901,9 @@
       <c r="E77" t="n">
         <v>38314.02095415614</v>
       </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>12.74230873026102</v>
+      </c>
       <c r="G77" t="n">
         <v>-0.006616161288555656</v>
       </c>
@@ -2781,12 +2933,14 @@
       <c r="E78" t="n">
         <v>31292.68510249679</v>
       </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>29.24623522998123</v>
+      </c>
       <c r="G78" t="n">
-        <v>-0.001792372811653183</v>
+        <v>-0.001792372811653182</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.001285000343671542</v>
+        <v>-0.001285000343671541</v>
       </c>
       <c r="I78" t="n">
         <v>-1.569921631024082</v>
@@ -2811,12 +2965,14 @@
       <c r="E79" t="n">
         <v>5955.011130016722</v>
       </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>16.61186101732073</v>
+      </c>
       <c r="G79" t="n">
-        <v>-0.00996335221945315</v>
+        <v>-0.009963352219453148</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.002472579134252714</v>
+        <v>-0.002472579134252713</v>
       </c>
       <c r="I79" t="n">
         <v>-0.2737527149554446</v>
@@ -2841,18 +2997,20 @@
       <c r="E80" t="n">
         <v>5121.233499634875</v>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>65.42937357404976</v>
+      </c>
       <c r="G80" t="n">
-        <v>-0.006241090054979797</v>
+        <v>-0.00624109005498011</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.002989284588719743</v>
+        <v>-0.0029892845887199</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9784892881563565</v>
+        <v>0.9784892881563509</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02887016182170254</v>
+        <v>0.02887016182170247</v>
       </c>
     </row>
     <row r="81">
@@ -2871,9 +3029,11 @@
       <c r="E81" t="n">
         <v>35347.48744149688</v>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>16.92279737185433</v>
+      </c>
       <c r="G81" t="n">
-        <v>-0.00654006264219362</v>
+        <v>-0.006540062642193619</v>
       </c>
       <c r="H81" t="n">
         <v>-0.004868038996478087</v>
@@ -2901,9 +3061,11 @@
       <c r="E82" t="n">
         <v>4565.387311845483</v>
       </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>34.62007817626225</v>
+      </c>
       <c r="G82" t="n">
-        <v>-0.002256227291722499</v>
+        <v>-0.002256227291722498</v>
       </c>
       <c r="H82" t="n">
         <v>-0.001617762914999831</v>
@@ -2931,18 +3093,20 @@
       <c r="E83" t="n">
         <v>41271.14290522745</v>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>0.6910661525687809</v>
+      </c>
       <c r="G83" t="n">
-        <v>-0.02215985156265397</v>
+        <v>-0.02215985156265396</v>
       </c>
       <c r="H83" t="n">
         <v>-0.001682185406038709</v>
       </c>
       <c r="I83" t="n">
-        <v>0.6158846084778824</v>
+        <v>0.6158846084778962</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03260392599958322</v>
+        <v>0.03260392599958306</v>
       </c>
     </row>
     <row r="84">
@@ -2961,12 +3125,14 @@
       <c r="E84" t="n">
         <v>35605.86913066832</v>
       </c>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>32.02972201664866</v>
+      </c>
       <c r="G84" t="n">
-        <v>-0.003239185467661006</v>
+        <v>-0.003239185467661007</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.002323212493323246</v>
+        <v>-0.002323212493323247</v>
       </c>
       <c r="I84" t="n">
         <v>0.04678454651328841</v>
@@ -2991,12 +3157,14 @@
       <c r="E85" t="n">
         <v>4986.090251453088</v>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>76.67220755393714</v>
+      </c>
       <c r="G85" t="n">
         <v>-0.003210515260127836</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.001627992303553207</v>
+        <v>-0.001627992303553046</v>
       </c>
       <c r="I85" t="n">
         <v>-0.3037303565613031</v>
@@ -3021,7 +3189,9 @@
       <c r="E86" t="n">
         <v>5157.047990174404</v>
       </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>0.9162168059968624</v>
+      </c>
       <c r="G86" t="n">
         <v>-0.04462604876459749</v>
       </c>
@@ -3051,7 +3221,9 @@
       <c r="E87" t="n">
         <v>49345.33934655759</v>
       </c>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>33.95353094078541</v>
+      </c>
       <c r="G87" t="n">
         <v>-0.005535666790542252</v>
       </c>
@@ -3081,7 +3253,9 @@
       <c r="E88" t="n">
         <v>19339.2689920499</v>
       </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>27.04278069373755</v>
+      </c>
       <c r="G88" t="n">
         <v>-0.004099058331285615</v>
       </c>
@@ -3111,7 +3285,9 @@
       <c r="E89" t="n">
         <v>19161.46520627765</v>
       </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>44.7047563502775</v>
+      </c>
       <c r="G89" t="n">
         <v>-0.001743099071247244</v>
       </c>
@@ -3119,10 +3295,10 @@
         <v>-0.001249657210454393</v>
       </c>
       <c r="I89" t="n">
-        <v>-2.642439093695671</v>
+        <v>-2.642439093695768</v>
       </c>
       <c r="J89" t="n">
-        <v>0.006536185318191406</v>
+        <v>0.006536185318191252</v>
       </c>
     </row>
     <row r="90">
@@ -3141,12 +3317,14 @@
       <c r="E90" t="n">
         <v>40827.17879561763</v>
       </c>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>25.44510455056611</v>
+      </c>
       <c r="G90" t="n">
-        <v>-0.0023210844580162</v>
+        <v>-0.002321084458016202</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.001664297495761989</v>
+        <v>-0.00166429749576199</v>
       </c>
       <c r="I90" t="n">
         <v>-2.214280288689624</v>
@@ -3171,18 +3349,20 @@
       <c r="E91" t="n">
         <v>47415.18029180908</v>
       </c>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>21.89752080255388</v>
+      </c>
       <c r="G91" t="n">
-        <v>-0.002346149857342507</v>
+        <v>-0.002346149857342506</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.001682282209933762</v>
+        <v>-0.001682282209933761</v>
       </c>
       <c r="I91" t="n">
-        <v>-2.73250372733022</v>
+        <v>-2.73250372733029</v>
       </c>
       <c r="J91" t="n">
-        <v>0.006817894247160295</v>
+        <v>0.006817894247160203</v>
       </c>
     </row>
     <row r="92">
@@ -3201,7 +3381,9 @@
       <c r="E92" t="n">
         <v>49314.05212732068</v>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>4.58866578536617</v>
+      </c>
       <c r="G92" t="n">
         <v>-0.004749995354071421</v>
       </c>
@@ -3231,12 +3413,14 @@
       <c r="E93" t="n">
         <v>37915.53107768814</v>
       </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>82.41280376568217</v>
+      </c>
       <c r="G93" t="n">
         <v>-0.002388453967664345</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.0008092259149672281</v>
+        <v>-0.0008092259149672283</v>
       </c>
       <c r="I93" t="n">
         <v>-1.053418140540594</v>
@@ -3261,7 +3445,9 @@
       <c r="E94" t="n">
         <v>19436.71969101487</v>
       </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>52.8056312815415</v>
+      </c>
       <c r="G94" t="n">
         <v>-0.006521125666262275</v>
       </c>
@@ -3291,9 +3477,11 @@
       <c r="E95" t="n">
         <v>5091.535118234769</v>
       </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>43.70782698871626</v>
+      </c>
       <c r="G95" t="n">
-        <v>-0.002360183211905764</v>
+        <v>-0.002360183211905763</v>
       </c>
       <c r="H95" t="n">
         <v>-0.001692351415942738</v>
@@ -3321,7 +3509,9 @@
       <c r="E96" t="n">
         <v>39080.1988804444</v>
       </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>14.09386996027907</v>
+      </c>
       <c r="G96" t="n">
         <v>-0.003687021392874546</v>
       </c>
@@ -3351,7 +3541,9 @@
       <c r="E97" t="n">
         <v>28361.80823705445</v>
       </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>5.832598276827158</v>
+      </c>
       <c r="G97" t="n">
         <v>-0.01108266722630919</v>
       </c>
@@ -3381,12 +3573,14 @@
       <c r="E98" t="n">
         <v>21786.87845310184</v>
       </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>72.22421492759419</v>
+      </c>
       <c r="G98" t="n">
-        <v>-0.003574310595312979</v>
+        <v>-0.00357431059531298</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.002405206368645715</v>
+        <v>-0.002405206368645716</v>
       </c>
       <c r="I98" t="n">
         <v>1.213758148539793</v>
@@ -3411,7 +3605,9 @@
       <c r="E99" t="n">
         <v>45411.36486964206</v>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>21.50124346138384</v>
+      </c>
       <c r="G99" t="n">
         <v>-0.007461871900199256</v>
       </c>
@@ -3441,12 +3637,14 @@
       <c r="E100" t="n">
         <v>6448.676633001416</v>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>41.82250840512528</v>
+      </c>
       <c r="G100" t="n">
         <v>-0.008514842677130327</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.005140101573859157</v>
+        <v>-0.005140101573859361</v>
       </c>
       <c r="I100" t="n">
         <v>1.177547116207092</v>
@@ -3471,7 +3669,9 @@
       <c r="E101" t="n">
         <v>25138.6301102521</v>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>53.53089017651386</v>
+      </c>
       <c r="G101" t="n">
         <v>-0.005532886413098015</v>
       </c>
